--- a/ig/ch-epr-fhir/StructureDefinition-DocumentAuditEvent.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-DocumentAuditEvent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-fhir/StructureDefinition/ch-epr-fhir-auditevent</t>
+    <t>http://fhir.ch/ig/ch-epr-fhir/StructureDefinition/ch-atc-auditevent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -379,7 +379,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -535,7 +535,7 @@
     <t>Sub-type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -971,7 +971,7 @@
     <t>The Participation type of the agent to the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1026,7 +1026,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(PractitionerRole|4.0.1|Practitioner|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1098,7 +1098,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1210,7 +1210,7 @@
     <t>AuditEvent.agent.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1277,7 +1277,7 @@
     <t>Used when the event is about exporting/importing onto media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype</t>
+    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype|4.0.1</t>
   </si>
   <si>
     <t>.player.description.mediaType</t>
@@ -1463,7 +1463,7 @@
     <t>Code specifying the type of system that detected and recorded the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-source-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1523,7 +1523,7 @@
     <t>AuditEvent.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1557,7 +1557,7 @@
     <t>Code for the entity type involved in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-entity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-entity-type|4.0.1</t>
   </si>
   <si>
     <t>[self::Act].code or role.player.code</t>
@@ -1587,7 +1587,7 @@
     <t>Code representing the role the entity played in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-role</t>
+    <t>http://hl7.org/fhir/ValueSet/object-role|4.0.1</t>
   </si>
   <si>
     <t>role.code (not sure what this would mean for an Act)</t>
@@ -1617,7 +1617,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.2.0</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|4.0.1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -1647,7 +1647,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -1905,7 +1905,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1989,7 +1989,7 @@
     <t>AuditEvent.entity.what.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
